--- a/biology/Zoologie/Chilo_suppressalis/Chilo_suppressalis.xlsx
+++ b/biology/Zoologie/Chilo_suppressalis/Chilo_suppressalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chilo suppressalis (perceur asiatique du riz, pyrale du riz, pyrale rayée du riz, pyrale rouillée) est une espèce d'insectes lépidoptères (papillons) de la famille des Crambidae, originaire d'Asie.
 Cet insecte ravageur est l'un des principaux ravageurs du riz cultivé en Asie orientale, conjointement avec d'autres espèces du même genre, telles que Chilo hyrax et Chilo christophi. 
@@ -514,9 +526,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon CAB International[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon CAB International :
 Chilo oryzae Fletcher, 1926-27
 Chilo simplex Hudson, 1895
 Chilo simplex Butler, 1877
